--- a/Midterm Report/Selection of Prompt Engineering Methods/Papers From Wikipedia.xlsx
+++ b/Midterm Report/Selection of Prompt Engineering Methods/Papers From Wikipedia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijyli\repo\anlp23-project\Midterm Report\Selection of Prompt Engineering Methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9C0D0F-6FC5-499A-91EE-440689F9AE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57212A5C-CA17-4FCD-8B2D-4009547B94FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>Source</t>
   </si>
@@ -64,6 +64,33 @@
   </si>
   <si>
     <t>Large Language Models Are Human-Level Prompt Engineers</t>
+  </si>
+  <si>
+    <t>Large Language Models are Zero-Shot Reasoners</t>
+  </si>
+  <si>
+    <t>Scaling Instruction-Finetuned Language Models</t>
+  </si>
+  <si>
+    <t>Active Prompting with Chain-of-Thought for Large Language Models</t>
+  </si>
+  <si>
+    <t>Web Archive Source: https://web.archive.org/web/20231022192001/https%3A%2F%2Fen.wikipedia.org%2Fwiki%2FPrompt_engineering</t>
+  </si>
+  <si>
+    <t>Large Language Model Guided Tree-of-Thought</t>
+  </si>
+  <si>
+    <t>GPT-4 Technical Report</t>
+  </si>
+  <si>
+    <t>Retrieval-Augmented Generation for Knowledge-Intensive NLP Tasks</t>
+  </si>
+  <si>
+    <t>Automatic Chain of Thought Prompting in Large Language Models</t>
+  </si>
+  <si>
+    <t>Included are all academic papers cited from the Text-to-text section</t>
   </si>
 </sst>
 </file>
@@ -108,9 +135,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -392,9 +420,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -420,7 +450,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -428,7 +458,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -436,7 +466,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -444,7 +474,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
@@ -452,7 +482,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
@@ -460,7 +490,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
@@ -468,7 +498,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1</v>
@@ -476,7 +506,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
@@ -484,26 +514,99 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://en.wikipedia.org/wiki/Prompt_engineering" xr:uid="{1A7E9F08-3F15-42B5-BF16-6FDB19D29D57}"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://en.wikipedia.org/wiki/Prompt_engineering" xr:uid="{7FBA16ED-8767-4F4F-B78F-F8427E596025}"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://en.wikipedia.org/wiki/Prompt_engineering" xr:uid="{9FE9D731-4D48-4587-AF29-82814DF4F9A9}"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://arxiv.org/abs/2203.11171" xr:uid="{E642675E-4EA4-4C48-973C-FEF789D76A6C}"/>
-    <hyperlink ref="A4" r:id="rId5" display="https://arxiv.org/abs/2205.10625" xr:uid="{186B9E09-3133-447D-A37E-ED043B93F63F}"/>
-    <hyperlink ref="B5" r:id="rId6" display="https://en.wikipedia.org/wiki/Prompt_engineering" xr:uid="{D9135326-1D25-4D98-A39F-D7994B83ABC6}"/>
-    <hyperlink ref="B6" r:id="rId7" display="https://en.wikipedia.org/wiki/Prompt_engineering" xr:uid="{DDA0A9B6-FCD0-439A-8902-21ACDDCD4967}"/>
-    <hyperlink ref="B7" r:id="rId8" display="https://en.wikipedia.org/wiki/Prompt_engineering" xr:uid="{1E745851-CD3C-4B6E-9F8F-CABF8E6E441F}"/>
-    <hyperlink ref="B8" r:id="rId9" display="https://en.wikipedia.org/wiki/Prompt_engineering" xr:uid="{5B99659E-8AEB-4A66-A80B-B1608F583542}"/>
-    <hyperlink ref="B9" r:id="rId10" display="https://en.wikipedia.org/wiki/Prompt_engineering" xr:uid="{F18FA05C-5D7B-4CEF-81E8-D0A4C5D4C0D9}"/>
-    <hyperlink ref="B10" r:id="rId11" display="https://en.wikipedia.org/wiki/Prompt_engineering" xr:uid="{076CD4A0-903C-4801-A2BD-91E76FE66B2E}"/>
-    <hyperlink ref="B11" r:id="rId12" display="https://en.wikipedia.org/wiki/Prompt_engineering" xr:uid="{37E4A30D-B2FA-42D3-AF8B-B913D562C40C}"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://en.wikipedia.org/wiki/Prompt_engineering" xr:uid="{7FBA16ED-8767-4F4F-B78F-F8427E596025}"/>
+    <hyperlink ref="B6" r:id="rId3" display="https://en.wikipedia.org/wiki/Prompt_engineering" xr:uid="{9FE9D731-4D48-4587-AF29-82814DF4F9A9}"/>
+    <hyperlink ref="A7" r:id="rId4" display="https://arxiv.org/abs/2203.11171" xr:uid="{E642675E-4EA4-4C48-973C-FEF789D76A6C}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://arxiv.org/abs/2205.10625" xr:uid="{186B9E09-3133-447D-A37E-ED043B93F63F}"/>
+    <hyperlink ref="B7" r:id="rId6" display="https://en.wikipedia.org/wiki/Prompt_engineering" xr:uid="{D9135326-1D25-4D98-A39F-D7994B83ABC6}"/>
+    <hyperlink ref="B9" r:id="rId7" display="https://en.wikipedia.org/wiki/Prompt_engineering" xr:uid="{DDA0A9B6-FCD0-439A-8902-21ACDDCD4967}"/>
+    <hyperlink ref="B10" r:id="rId8" display="https://en.wikipedia.org/wiki/Prompt_engineering" xr:uid="{1E745851-CD3C-4B6E-9F8F-CABF8E6E441F}"/>
+    <hyperlink ref="B12" r:id="rId9" display="https://en.wikipedia.org/wiki/Prompt_engineering" xr:uid="{5B99659E-8AEB-4A66-A80B-B1608F583542}"/>
+    <hyperlink ref="B13" r:id="rId10" display="https://en.wikipedia.org/wiki/Prompt_engineering" xr:uid="{F18FA05C-5D7B-4CEF-81E8-D0A4C5D4C0D9}"/>
+    <hyperlink ref="B14" r:id="rId11" display="https://en.wikipedia.org/wiki/Prompt_engineering" xr:uid="{076CD4A0-903C-4801-A2BD-91E76FE66B2E}"/>
+    <hyperlink ref="B17" r:id="rId12" display="https://en.wikipedia.org/wiki/Prompt_engineering" xr:uid="{37E4A30D-B2FA-42D3-AF8B-B913D562C40C}"/>
+    <hyperlink ref="B3" r:id="rId13" display="https://en.wikipedia.org/wiki/Prompt_engineering" xr:uid="{5D89623A-E20F-4E02-B6F4-6817D903A3AF}"/>
+    <hyperlink ref="B4" r:id="rId14" display="https://en.wikipedia.org/wiki/Prompt_engineering" xr:uid="{BBE0CA47-979F-4FF0-B1EA-E0140FA58242}"/>
+    <hyperlink ref="B8" r:id="rId15" display="https://en.wikipedia.org/wiki/Prompt_engineering" xr:uid="{E3EC40C4-2DD4-4259-B11A-DD5BB899E9F0}"/>
+    <hyperlink ref="B11" r:id="rId16" display="https://en.wikipedia.org/wiki/Prompt_engineering" xr:uid="{10C2BDE5-8983-4356-91CC-CC9993CCDBB4}"/>
+    <hyperlink ref="B15" r:id="rId17" display="https://en.wikipedia.org/wiki/Prompt_engineering" xr:uid="{E8708EC8-4915-4769-8D8F-AC7CA285FCAD}"/>
+    <hyperlink ref="B18" r:id="rId18" display="https://en.wikipedia.org/wiki/Prompt_engineering" xr:uid="{887AD64D-AF94-4B73-ADB1-C3AF9BEADB25}"/>
+    <hyperlink ref="B16" r:id="rId19" display="https://en.wikipedia.org/wiki/Prompt_engineering" xr:uid="{57F8678B-072A-4E93-952E-B607AD0EA44C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
